--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Genitore che ha acquistato Cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>ulterioreCittadinanza</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1120,7 +1132,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>78</v>
@@ -1140,7 +1152,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>78</v>
@@ -1160,7 +1172,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>78</v>
@@ -1180,7 +1192,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>78</v>
@@ -1200,7 +1212,7 @@
         <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>78</v>
@@ -1300,7 +1312,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>78</v>
@@ -1320,7 +1332,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>78</v>
@@ -1340,7 +1352,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>78</v>
@@ -1360,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>78</v>
@@ -1460,7 +1472,7 @@
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>78</v>
@@ -1480,7 +1492,7 @@
         <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>78</v>
@@ -1500,7 +1512,7 @@
         <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>78</v>
@@ -1520,7 +1532,7 @@
         <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>78</v>
@@ -1580,7 +1592,7 @@
         <v>33</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>98</v>
@@ -1600,7 +1612,7 @@
         <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>98</v>
@@ -1620,7 +1632,7 @@
         <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>98</v>
@@ -1640,7 +1652,7 @@
         <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>98</v>
@@ -1660,7 +1672,7 @@
         <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>98</v>
@@ -1760,7 +1772,7 @@
         <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>98</v>
@@ -1780,7 +1792,7 @@
         <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>98</v>
@@ -1800,7 +1812,7 @@
         <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>98</v>
@@ -1820,7 +1832,7 @@
         <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>98</v>
@@ -1920,7 +1932,7 @@
         <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>98</v>
@@ -1940,7 +1952,7 @@
         <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>98</v>
@@ -1960,7 +1972,7 @@
         <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>98</v>
@@ -1980,7 +1992,7 @@
         <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>98</v>
@@ -2149,6 +2161,26 @@
         <v>115</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -320,7 +320,7 @@
     <t>Data formazione documento</t>
   </si>
   <si>
-    <t>evento.trascrizioneCittadinanza.attoEstero.enteEstero</t>
+    <t>evento.trascrizioneCittadinanza.atto.enteEstero</t>
   </si>
   <si>
     <t>dataTrascrizione</t>
@@ -338,6 +338,18 @@
     <t>nomeEnte</t>
   </si>
   <si>
+    <t>Stato ente</t>
+  </si>
+  <si>
+    <t>nazioneEnte</t>
+  </si>
+  <si>
+    <t>Stato ente - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeNazioneEnte</t>
+  </si>
+  <si>
     <t>Provincia ente</t>
   </si>
   <si>
@@ -362,16 +374,25 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>Anagrafica Consolato</t>
+  </si>
+  <si>
+    <t>idAnagraficaConsolato</t>
+  </si>
+  <si>
+    <t>Anagrafica Consolato - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeAnagraficaConsolato</t>
+  </si>
+  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
     <t>Genitore che ha acquistato Cittadinanza</t>
   </si>
   <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
-    <t>ulterioreCittadinanza</t>
+    <t>genitoreConCittadinanza</t>
   </si>
 </sst>
 </file>
@@ -430,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,8 +460,8 @@
     <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2032,7 +2053,7 @@
         <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>102</v>
@@ -2112,7 +2133,7 @@
         <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>102</v>
@@ -2132,7 +2153,7 @@
         <v>112</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>102</v>
@@ -2166,21 +2187,101 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="C88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -251,6 +257,9 @@
     <t>evento.madre</t>
   </si>
   <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+  </si>
+  <si>
     <t>Stato di nascita</t>
   </si>
   <si>
@@ -309,6 +318,9 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
   </si>
   <si>
     <t>evento.padre.recapito</t>
@@ -451,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -463,6 +475,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,45 +497,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -544,1745 +566,2009 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.4</t>
+    <t>193.18</t>
   </si>
   <si>
     <t>Formazione atto</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di acquisizione di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193.18</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di acquisizione di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193.18</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -567,2008 +570,2008 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -260,7 +260,7 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,2</t>
   </si>
   <si>
     <t>Stato di nascita</t>
@@ -323,7 +323,7 @@
     <t>evento.padre</t>
   </si>
   <si>
-    <t>{evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1}</t>
+    <t>evento.trascrizioneCittadinanza.genitoreConCittadinanza,=,1</t>
   </si>
   <si>
     <t>evento.padre.recapito</t>
@@ -478,7 +478,7 @@
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="56.828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -972,7 +978,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1064,7 +1070,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1179,7 +1185,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1242,283 +1248,283 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>91</v>
@@ -1527,21 +1533,21 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>92</v>
@@ -1550,67 +1556,67 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>95</v>
@@ -1619,21 +1625,21 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>96</v>
@@ -1642,21 +1648,21 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>97</v>
@@ -1665,297 +1671,297 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>87</v>
@@ -1964,21 +1970,21 @@
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>88</v>
@@ -1987,401 +1993,401 @@
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2415,19 +2421,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2438,19 +2444,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2484,19 +2490,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2507,19 +2513,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2530,19 +2536,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2553,24 +2559,93 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="E94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="144">
   <si>
     <t>Sezione</t>
   </si>
@@ -242,6 +242,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -312,6 +336,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -472,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,7 +512,7 @@
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="24.66796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="55.4453125" customWidth="true" bestFit="true"/>
   </cols>
@@ -1208,7 +1238,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1231,7 +1261,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1254,7 +1284,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1271,858 +1301,858 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>93</v>
@@ -2131,21 +2161,21 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>94</v>
@@ -2154,21 +2184,21 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>95</v>
@@ -2177,21 +2207,21 @@
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>96</v>
@@ -2200,21 +2230,21 @@
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>97</v>
@@ -2223,21 +2253,21 @@
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>98</v>
@@ -2246,406 +2276,728 @@
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="E108" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -311,10 +317,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -502,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -824,7 +827,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -916,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -1031,7 +1034,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1123,7 +1126,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1330,7 +1333,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1393,191 +1396,191 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>97</v>
@@ -1586,21 +1589,21 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>98</v>
@@ -1609,1206 +1612,1206 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2819,19 +2822,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2842,19 +2845,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2865,19 +2868,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2888,19 +2891,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2911,19 +2914,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2934,19 +2937,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2957,19 +2960,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2980,24 +2983,93 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="B111" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1103,7 +1109,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1126,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1356,7 +1362,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1419,375 +1425,375 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>104</v>
@@ -1796,21 +1802,21 @@
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>105</v>
@@ -1819,21 +1825,21 @@
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>106</v>
@@ -1842,21 +1848,21 @@
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>107</v>
@@ -1865,21 +1871,21 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>108</v>
@@ -1888,435 +1894,435 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>99</v>
@@ -2325,21 +2331,21 @@
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>100</v>
@@ -2348,113 +2354,113 @@
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>103</v>
@@ -2463,323 +2469,323 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
@@ -2788,99 +2794,99 @@
         <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2891,19 +2897,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2914,19 +2920,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2937,19 +2943,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2960,19 +2966,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2983,19 +2989,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3006,19 +3012,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3052,24 +3058,93 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="E114" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -50,7 +50,7 @@
     <t>Formula</t>
   </si>
   <si>
-    <t>193.18</t>
+    <t>193.24</t>
   </si>
   <si>
     <t>Si puo' ignorare la sezione per</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1773,7 +1779,7 @@
         <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -1782,7 +1788,7 @@
         <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,7 +1802,7 @@
         <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -1805,7 +1811,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1819,7 +1825,7 @@
         <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
@@ -1828,7 +1834,7 @@
         <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1842,7 +1848,7 @@
         <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
@@ -1851,7 +1857,7 @@
         <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,7 +1871,7 @@
         <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
@@ -1874,7 +1880,7 @@
         <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1888,7 +1894,7 @@
         <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
@@ -1897,7 +1903,7 @@
         <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,7 +1917,7 @@
         <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
@@ -1920,7 +1926,7 @@
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,7 +1940,7 @@
         <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
@@ -1943,7 +1949,7 @@
         <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,16 +1963,16 @@
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1989,7 +1995,7 @@
         <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2003,7 +2009,7 @@
         <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -2012,7 +2018,7 @@
         <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,16 +2032,16 @@
         <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2049,7 +2055,7 @@
         <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
@@ -2058,7 +2064,7 @@
         <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,7 +2078,7 @@
         <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -2081,7 +2087,7 @@
         <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2095,7 +2101,7 @@
         <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -2104,7 +2110,7 @@
         <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,7 +2124,7 @@
         <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
@@ -2127,7 +2133,7 @@
         <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,10 +2153,10 @@
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,352 +2167,352 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>104</v>
@@ -2515,44 +2521,44 @@
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>106</v>
@@ -2561,21 +2567,21 @@
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>107</v>
@@ -2584,21 +2590,21 @@
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>108</v>
@@ -2607,21 +2613,21 @@
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>109</v>
@@ -2630,21 +2636,21 @@
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>110</v>
@@ -2653,208 +2659,208 @@
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
@@ -2863,76 +2869,76 @@
         <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,19 +2949,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,19 +2972,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,24 +3133,70 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="173">
   <si>
     <t>Sezione</t>
   </si>
@@ -294,6 +294,78 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Atto Nascita Minore</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Madre</t>
@@ -517,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.73828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.0625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
@@ -1457,22 +1529,22 @@
         <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1480,22 +1552,22 @@
         <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
@@ -1503,22 +1575,22 @@
         <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -1526,22 +1598,22 @@
         <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1549,22 +1621,22 @@
         <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1644,22 @@
         <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1595,22 +1667,22 @@
         <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -1618,22 +1690,22 @@
         <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -1641,22 +1713,22 @@
         <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -1664,22 +1736,22 @@
         <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -1687,22 +1759,22 @@
         <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1710,482 +1782,482 @@
         <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -2193,7 +2265,7 @@
         <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -2202,7 +2274,7 @@
         <v>119</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,16 +2288,16 @@
         <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,7 +2311,7 @@
         <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -2248,7 +2320,7 @@
         <v>119</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,7 +2334,7 @@
         <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2271,7 +2343,7 @@
         <v>119</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,7 +2357,7 @@
         <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2294,7 +2366,7 @@
         <v>119</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,7 +2380,7 @@
         <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2317,7 +2389,7 @@
         <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,16 +2403,16 @@
         <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,7 +2426,7 @@
         <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
@@ -2363,7 +2435,7 @@
         <v>119</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2377,7 +2449,7 @@
         <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
@@ -2386,7 +2458,7 @@
         <v>119</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2400,7 +2472,7 @@
         <v>118</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
@@ -2409,7 +2481,7 @@
         <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,7 +2495,7 @@
         <v>118</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
@@ -2432,7 +2504,7 @@
         <v>119</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2446,16 +2518,16 @@
         <v>118</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,737 +2538,1013 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
+      <c r="E128" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -589,7 +595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1555,7 +1561,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>96</v>
@@ -1578,7 +1584,7 @@
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>96</v>
@@ -1601,7 +1607,7 @@
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>96</v>
@@ -1624,7 +1630,7 @@
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>96</v>
@@ -1670,7 +1676,7 @@
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>96</v>
@@ -1693,7 +1699,7 @@
         <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>96</v>
@@ -1716,7 +1722,7 @@
         <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>96</v>
@@ -1785,7 +1791,7 @@
         <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>96</v>
@@ -1802,720 +1808,720 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>139</v>
@@ -2524,734 +2530,734 @@
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>139</v>
@@ -3263,50 +3269,50 @@
         <v>145</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>151</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>152</v>
@@ -3329,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>153</v>
@@ -3343,7 +3349,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>154</v>
@@ -3352,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>155</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -3375,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>157</v>
@@ -3389,16 +3395,16 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>159</v>
@@ -3412,7 +3418,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>160</v>
@@ -3421,7 +3427,7 @@
         <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -3435,7 +3441,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>162</v>
@@ -3444,7 +3450,7 @@
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>163</v>
@@ -3458,7 +3464,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>164</v>
@@ -3467,7 +3473,7 @@
         <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>165</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>166</v>
@@ -3490,7 +3496,7 @@
         <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>167</v>
@@ -3504,7 +3510,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>168</v>
@@ -3513,7 +3519,7 @@
         <v>33</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>169</v>
@@ -3527,24 +3533,47 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
+      <c r="E129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -1653,7 +1653,7 @@
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>96</v>
@@ -1814,7 +1814,7 @@
         <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>96</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -595,14 +601,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1469,7 +1475,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1532,19 +1538,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1555,16 +1561,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1587,7 +1593,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1601,7 +1607,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1610,7 +1616,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1624,7 +1630,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1633,7 +1639,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1656,7 +1662,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1679,10 +1685,10 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1716,7 +1722,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1725,10 +1731,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1762,7 +1768,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1771,7 +1777,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1785,7 +1791,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1794,7 +1800,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1808,7 +1814,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1817,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1831,559 +1837,559 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>90</v>
@@ -2392,7 +2398,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>91</v>
@@ -2401,12 +2407,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>92</v>
@@ -2415,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>93</v>
@@ -2424,127 +2430,127 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>141</v>
@@ -2553,573 +2559,573 @@
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>90</v>
@@ -3128,7 +3134,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>91</v>
@@ -3137,12 +3143,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>92</v>
@@ -3151,7 +3157,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>93</v>
@@ -3160,127 +3166,127 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>141</v>
@@ -3292,50 +3298,50 @@
         <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>153</v>
@@ -3349,7 +3355,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>154</v>
@@ -3358,7 +3364,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>155</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -3381,7 +3387,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>157</v>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
@@ -3404,7 +3410,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>159</v>
@@ -3418,16 +3424,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -3441,7 +3447,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>162</v>
@@ -3450,7 +3456,7 @@
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>163</v>
@@ -3464,7 +3470,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>164</v>
@@ -3473,7 +3479,7 @@
         <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>165</v>
@@ -3487,7 +3493,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>166</v>
@@ -3496,7 +3502,7 @@
         <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>167</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>168</v>
@@ -3519,7 +3525,7 @@
         <v>33</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>169</v>
@@ -3533,7 +3539,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>170</v>
@@ -3542,7 +3548,7 @@
         <v>33</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>171</v>
@@ -3556,24 +3562,47 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="E130" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="175">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -601,14 +595,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="43.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
@@ -1475,7 +1469,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1538,19 +1532,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1561,16 +1555,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1593,7 +1587,7 @@
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1607,7 +1601,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1616,7 +1610,7 @@
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1630,7 +1624,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1639,7 +1633,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1653,7 +1647,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1662,7 +1656,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1676,7 +1670,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1685,10 +1679,10 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1693,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,7 +1716,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>111</v>
@@ -1731,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1739,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,7 +1762,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>114</v>
@@ -1777,7 +1771,7 @@
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>115</v>
@@ -1791,7 +1785,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>116</v>
@@ -1800,7 +1794,7 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>117</v>
@@ -1814,7 +1808,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1823,7 +1817,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1837,559 +1831,559 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>90</v>
@@ -2398,7 +2392,7 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>91</v>
@@ -2407,12 +2401,12 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>92</v>
@@ -2421,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>93</v>
@@ -2430,127 +2424,127 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>141</v>
@@ -2559,573 +2553,573 @@
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>90</v>
@@ -3134,7 +3128,7 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>91</v>
@@ -3143,12 +3137,12 @@
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>92</v>
@@ -3157,7 +3151,7 @@
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>93</v>
@@ -3166,127 +3160,127 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>141</v>
@@ -3298,50 +3292,50 @@
         <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>153</v>
@@ -3355,7 +3349,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>154</v>
@@ -3364,7 +3358,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>155</v>
@@ -3378,7 +3372,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>156</v>
@@ -3387,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>157</v>
@@ -3401,7 +3395,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>158</v>
@@ -3410,7 +3404,7 @@
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>159</v>
@@ -3424,16 +3418,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>161</v>
@@ -3447,7 +3441,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>162</v>
@@ -3456,7 +3450,7 @@
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>163</v>
@@ -3470,7 +3464,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>164</v>
@@ -3479,7 +3473,7 @@
         <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>165</v>
@@ -3493,7 +3487,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>166</v>
@@ -3502,7 +3496,7 @@
         <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>167</v>
@@ -3516,7 +3510,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>168</v>
@@ -3525,7 +3519,7 @@
         <v>33</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>169</v>
@@ -3539,7 +3533,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>170</v>
@@ -3548,7 +3542,7 @@
         <v>33</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>171</v>
@@ -3562,47 +3556,24 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="181">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -601,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -969,7 +981,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -992,7 +1004,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -1038,7 +1050,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -1061,7 +1073,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1153,7 +1165,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1176,7 +1188,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1199,7 +1211,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1222,7 +1234,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1498,7 +1510,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1521,7 +1533,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -1561,19 +1573,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1596,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1607,16 +1619,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1630,7 +1642,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1639,7 +1651,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1653,7 +1665,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1662,7 +1674,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1676,7 +1688,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1685,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1699,7 +1711,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1708,10 +1720,10 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1734,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1757,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1780,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1803,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,7 +1826,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>118</v>
@@ -1823,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>119</v>
@@ -1837,7 +1849,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>120</v>
@@ -1846,7 +1858,7 @@
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>121</v>
@@ -1860,421 +1872,421 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E62" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>136</v>
@@ -2283,44 +2295,44 @@
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>138</v>
@@ -2329,21 +2341,21 @@
         <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>139</v>
@@ -2352,21 +2364,21 @@
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>140</v>
@@ -2375,550 +2387,550 @@
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
@@ -2927,44 +2939,44 @@
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>134</v>
@@ -2973,361 +2985,361 @@
         <v>33</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119">
@@ -3335,22 +3347,22 @@
         <v>150</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -3358,22 +3370,22 @@
         <v>150</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -3381,22 +3393,22 @@
         <v>150</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="122">
@@ -3404,22 +3416,22 @@
         <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -3427,22 +3439,22 @@
         <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3450,39 +3462,39 @@
         <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3493,19 +3505,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3516,19 +3528,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3574,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,24 +3597,162 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="C134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
+      <c r="E136" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>18</v>
       </c>
     </row>
